--- a/results/Tables/3. Mediterranean sp highest germination period.xlsx
+++ b/results/Tables/3. Mediterranean sp highest germination period.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/movealong/results/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{760286DA-619D-4E83-A6ED-5F48CF07C017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{760286DA-619D-4E83-A6ED-5F48CF07C017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2748AEB2-6D5F-4877-A4C4-A05450165EF6}"/>
   <bookViews>
-    <workbookView xWindow="-22830" yWindow="345" windowWidth="13110" windowHeight="14805" xr2:uid="{F105ED72-D0CB-4EEF-91CE-9FBDD8DF0F8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F105ED72-D0CB-4EEF-91CE-9FBDD8DF0F8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Med" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Autumn</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Species</t>
+  </si>
+  <si>
+    <t>Delay time to 50% germ (days)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -277,19 +283,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,10 +615,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,37 +626,41 @@
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -664,10 +674,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
+        <v>76.208333333334025</v>
+      </c>
+      <c r="F3" s="1">
         <v>69.814580000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -681,10 +694,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>7.9117797796215994</v>
+      </c>
+      <c r="F4" s="1">
         <v>25.44096</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -698,10 +714,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
+        <v>-0.78769363806129888</v>
+      </c>
+      <c r="F5" s="1">
         <v>-8.0269919999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -715,10 +734,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="1">
+        <v>31.404464285713999</v>
+      </c>
+      <c r="F6" s="1">
         <v>29.18449</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -732,10 +754,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
+        <v>1.6747985793287596</v>
+      </c>
+      <c r="F7" s="1">
         <v>6.1222849999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -749,10 +774,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
+        <v>4.7317833310481028</v>
+      </c>
+      <c r="F8" s="1">
         <v>17.046119999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -766,10 +794,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="1">
+        <v>22.927083333333002</v>
+      </c>
+      <c r="F9" s="1">
         <v>34.588180000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -783,10 +814,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1">
+        <v>236.78958333333333</v>
+      </c>
+      <c r="F10" s="1">
         <v>191.21639999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -800,10 +834,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1">
+        <v>143.19742063491998</v>
+      </c>
+      <c r="F11" s="1">
         <v>107.0115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -817,10 +854,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
+        <v>8.0281508513416604</v>
+      </c>
+      <c r="F12" s="1">
         <v>54.196770000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -834,10 +874,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
+        <v>1.9837693910836407</v>
+      </c>
+      <c r="F13" s="1">
         <v>17.603860000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -851,10 +894,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
+        <v>41.828593129960296</v>
+      </c>
+      <c r="F14" s="1">
         <v>2.7350300000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -867,11 +913,14 @@
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
         <v>10.14752</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -885,10 +934,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
+        <v>0.31812005928853004</v>
+      </c>
+      <c r="F16" s="1">
         <v>8.8713510000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -902,10 +954,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
+        <v>82.447743055555705</v>
+      </c>
+      <c r="F17" s="1">
         <v>62.859369999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -919,10 +974,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
+        <v>9.8447802197801906</v>
+      </c>
+      <c r="F18" s="1">
         <v>28.353670000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -936,10 +994,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="1">
+        <v>47.036849261848971</v>
+      </c>
+      <c r="F19" s="1">
         <v>55.334409999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -953,10 +1014,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="1">
+        <v>41.888991013071006</v>
+      </c>
+      <c r="F20" s="1">
         <v>30.549150000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -970,10 +1034,13 @@
         <v>5</v>
       </c>
       <c r="E21" s="1">
+        <v>220.3694991283221</v>
+      </c>
+      <c r="F21" s="1">
         <v>164.5787</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -987,10 +1054,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
+        <v>-131.6736189431912</v>
+      </c>
+      <c r="F22" s="1">
         <v>-62.093020000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1004,14 +1074,18 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
+        <v>69.544305398441395</v>
+      </c>
+      <c r="F23" s="1">
         <v>65.792850000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
